--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fconti/Devel/dl-riscv-soa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8FFF9-8404-B748-A97B-ECF31BBD1B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DB677-2E64-DA44-9FE3-27A85515C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-76800" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>FP4</t>
   </si>
   <si>
-    <t>exSDOTP \cite{bertacciniMiniFloatNNExSdotpISA2022}</t>
-  </si>
-  <si>
     <t>FP8</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>10.1109/ISSCC49657.2024.10454395</t>
+  </si>
+  <si>
+    <t>exSDOTP</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -942,36 +942,36 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1004,26 +1004,26 @@
         <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1056,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1067,15 +1067,15 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1108,28 +1108,28 @@
         <v>12</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1162,26 +1162,26 @@
         <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1214,26 +1214,26 @@
         <v>18</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1266,26 +1266,26 @@
         <v>18</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1318,28 +1318,28 @@
         <v>12</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1372,30 +1372,30 @@
         <v>18</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1428,26 +1428,26 @@
         <v>12</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1480,26 +1480,26 @@
         <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -1532,28 +1532,28 @@
         <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1586,28 +1586,28 @@
         <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1640,26 +1640,26 @@
         <v>18</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -1692,26 +1692,26 @@
         <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1744,10 +1744,10 @@
         <v>18</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1755,15 +1755,15 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1796,26 +1796,26 @@
         <v>12</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1848,26 +1848,26 @@
         <v>18</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -1900,26 +1900,26 @@
         <v>18</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -1952,26 +1952,26 @@
         <v>18</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>16</v>
@@ -2004,26 +2004,26 @@
         <v>18</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>28</v>
@@ -2056,10 +2056,10 @@
         <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2067,15 +2067,15 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -2108,26 +2108,26 @@
         <v>12</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -2160,26 +2160,26 @@
         <v>12</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -2212,10 +2212,10 @@
         <v>12</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2223,15 +2223,15 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
@@ -2262,26 +2262,26 @@
         <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -2308,16 +2308,16 @@
         <v>16</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2325,18 +2325,18 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
         <v>570</v>
@@ -2366,10 +2366,10 @@
         <v>12</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2377,18 +2377,18 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <v>480</v>
@@ -2415,36 +2415,36 @@
         <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3">
         <v>1.92</v>
@@ -2474,10 +2474,10 @@
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2485,21 +2485,21 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3">
         <v>360</v>
@@ -2517,7 +2517,7 @@
         <v>7000</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>27</v>
@@ -2526,34 +2526,34 @@
         <v>12</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T31" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3">
         <v>1000</v>
@@ -2580,10 +2580,10 @@
         <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2591,15 +2591,15 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -2632,28 +2632,28 @@
         <v>12</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>11</v>
@@ -2686,26 +2686,26 @@
         <v>12</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T34" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
@@ -2732,32 +2732,32 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T35" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
@@ -2781,40 +2781,40 @@
         <v>285</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -2838,16 +2838,16 @@
         <v>372000</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2855,15 +2855,15 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -2890,16 +2890,16 @@
         <v>60</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2907,15 +2907,15 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -2942,16 +2942,16 @@
         <v>14</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2959,18 +2959,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <v>9.8000000000000007</v>
@@ -2991,37 +2991,37 @@
         <v>66300</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>10</v>
@@ -3054,26 +3054,26 @@
         <v>12</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>16</v>
@@ -3106,31 +3106,31 @@
         <v>12</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
         <v>0.14000000000000001</v>
@@ -3160,26 +3160,26 @@
         <v>18</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
@@ -3212,10 +3212,10 @@
         <v>18</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3223,15 +3223,15 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
@@ -3264,23 +3264,23 @@
         <v>12</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
